--- a/output/piastow/2018/sheets/year_2018.xlsx
+++ b/output/piastow/2018/sheets/year_2018.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>52.90645161290323</v>
+        <v>52.96805080204287</v>
       </c>
       <c r="C2" t="n">
-        <v>43.71290322580645</v>
+        <v>45.53088083900164</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>52.59285714285714</v>
+        <v>52.61499750438009</v>
       </c>
       <c r="C3" t="n">
-        <v>45.17857142857143</v>
+        <v>45.38675842570559</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>52.66129032258065</v>
+        <v>52.71264045851397</v>
       </c>
       <c r="C4" t="n">
-        <v>44.81935483870966</v>
+        <v>45.37598407157924</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.80333333333333</v>
+        <v>51.32060252785941</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68666666666667</v>
+        <v>44.45483327887666</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>53.3258064516129</v>
+        <v>53.33667070138549</v>
       </c>
       <c r="C6" t="n">
-        <v>46.75483870967741</v>
+        <v>46.89545652125275</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>53.43666666666666</v>
+        <v>53.46319816558865</v>
       </c>
       <c r="C7" t="n">
-        <v>46.63999999999999</v>
+        <v>46.91462073534809</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>53.05483870967743</v>
+        <v>53.090222479418</v>
       </c>
       <c r="C8" t="n">
-        <v>46.60322580645161</v>
+        <v>46.79819333918215</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.56451612903226</v>
+        <v>52.59533654559036</v>
       </c>
       <c r="C9" t="n">
-        <v>46.46774193548386</v>
+        <v>46.62975998579675</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>53.51666666666667</v>
+        <v>53.54041119995676</v>
       </c>
       <c r="C10" t="n">
-        <v>46.88333333333333</v>
+        <v>47.04843927179199</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.63225806451614</v>
+        <v>53.66402012089126</v>
       </c>
       <c r="C11" t="n">
-        <v>46.39354838709677</v>
+        <v>46.54911604508597</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>50.86000000000001</v>
+        <v>53.09938860853875</v>
       </c>
       <c r="C12" t="n">
-        <v>42.80666666666666</v>
+        <v>46.12786721753046</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.13225806451613</v>
+        <v>52.37397287305235</v>
       </c>
       <c r="C13" t="n">
-        <v>44.52903225806452</v>
+        <v>45.76295851713715</v>
       </c>
     </row>
   </sheetData>
